--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/8  INSPECCIONAR.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/8  INSPECCIONAR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\TAREA 1 ACTUALIZAR PT\1 PAPELES DE TRABAJO AUDITORIA\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1876C68A-1A6F-4327-9AB1-417E1555CEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -57,15 +52,6 @@
     <t>F)</t>
   </si>
   <si>
-    <t xml:space="preserve">            Auditoria Financiera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Entidad XXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            INSPECCIONAR CUENTAS POR COBRAR</t>
-  </si>
-  <si>
     <t>Lista de Contratos y Acuerdos (Muestra Representativa):</t>
   </si>
   <si>
@@ -120,9 +106,6 @@
     <t>Cliente C</t>
   </si>
   <si>
-    <t xml:space="preserve">             Del 01 de enero al 31 de diciembre del 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Atributos </t>
   </si>
   <si>
@@ -142,12 +125,24 @@
   </si>
   <si>
     <t>B-8</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoria Financiera</t>
+  </si>
+  <si>
+    <t>INSPECCIONAR CUENTAS POR COBRAR</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,21 +372,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -457,6 +444,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,7 +488,7 @@
         <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02AD85C-2D12-48C8-A1C7-DFD27AA512FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -550,7 +543,7 @@
         <xdr:cNvPr id="5" name="Conector recto 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D784A819-57DA-4AB7-B47F-C8DDA9871868}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -605,7 +598,7 @@
         <xdr:cNvPr id="6" name="Elipse 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33CCC011-B0C1-444B-BD63-2BDF7368DD23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -670,7 +663,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1015,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1030,11 +1029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,229 +1047,228 @@
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="16"/>
+    <row r="4" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="H5" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="13"/>
       <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="16"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="13"/>
       <c r="H7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="15"/>
       <c r="H9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="11" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
+      <c r="E12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="F12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="G12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="31" t="s">
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25">
+        <v>1</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="D13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="E13" s="25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28">
-        <v>1</v>
-      </c>
-      <c r="C13" s="28" t="s">
+      <c r="F13" s="26">
+        <v>15000</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="28" t="s">
+    </row>
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
+        <v>2</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="D14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="29">
-        <v>15000</v>
-      </c>
-      <c r="G13" s="30" t="s">
+      <c r="E14" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21">
-        <v>2</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="F14" s="19">
+        <v>8500</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="21" t="s">
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25">
+        <v>3</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="D15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="22">
-        <v>8500</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="E15" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28">
+      <c r="F15" s="26">
+        <v>20000</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C18" s="9"/>
+      <c r="E18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="28" t="s">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="28" t="s">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="29">
-        <v>20000</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="E18" s="25" t="s">
+    </row>
+    <row r="25" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="23"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="F33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="D34" s="13"/>
+      <c r="G34" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J27" s="26"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="F33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="26"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="G34" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B22:K22"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
